--- a/Fig.6_Riboflavin_feeding_bioassay/metadata.xlsx
+++ b/Fig.6_Riboflavin_feeding_bioassay/metadata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisde\surfdrive\chapters\chm\data\hydroponics bioassay\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lisde\OneDrive\Documents\GitHub\Riboflavin\Fig.6_Riboflavin_feeding_bioassay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEFE707-0067-47C1-918C-D390BABC5412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D084063-E0BD-44C1-8EEF-39A47112945B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{2CBDDDEE-8A29-412C-B313-79E53312EB71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{2CBDDDEE-8A29-412C-B313-79E53312EB71}"/>
   </bookViews>
   <sheets>
     <sheet name="Explenations of columns" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="99">
   <si>
     <t>genotype</t>
   </si>
@@ -354,6 +354,9 @@
       </rPr>
       <t xml:space="preserve"> C for analysis of riboflavin</t>
     </r>
+  </si>
+  <si>
+    <t>fourth concentration riboflavin (date)</t>
   </si>
 </sst>
 </file>
@@ -2192,7 +2195,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
